--- a/biology/Botanique/Eugène_Bureau/Eugène_Bureau.xlsx
+++ b/biology/Botanique/Eugène_Bureau/Eugène_Bureau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Bureau</t>
+          <t>Eugène_Bureau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Bureau, à l'état-civil André Eugène Buraud, est un jardinier et architecte-paysagiste français né à Angoulême le 2 juillet 1872, et mort à La Couronne, le 28 janvier 1955.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Bureau</t>
+          <t>Eugène_Bureau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Bureau, né André Eugène Buraud à Angoulême le 2 juillet 1872, est le fils d'Honoré Jean Buraud qui a une entreprise d'horticulture à Angoulême, au 65 rue Basse de l‘Hémicycle, réalisant des tracés de parcs et jardins ainsi que des travaux hydrauliques[1]. Honoré Buraud tient ensuite un magasin de fleurs, place Bouillaud, à Angoulême, avec ses deux fils[1], Eugène André et Auguste Fernand.
-Eugène se marie le 16 juillet 1898 à Barbezieux avec Marguerite Guyot mais sa jeune épouse décède sept semaines plus tard[1].
-Il vit à Paris en 1905 et y épouse le 4 mars 1907 Marguerite Olivier[1]. De ce mariage sont nés trois enfants, André, en 1908, Yvonne, en 1909, et Jacques, en 1910[1].
-Il achète une propriété à La Couronne en 1910 où il s'installe avec sa famille[1].
-Il est mobilisé en 1914 et reçoit la Croix de guerre[1]. Il reprend son activité de paysagiste en 1919[1]. Au total, il a réalisé près de 80 jardins dans 40 communes du département de la Charente, dont 13 à La Couronne et 10 à Angoulême[1].
-Il meurt d'un cancer dans sa propriété le 28 janvier 1955[1]. Le parc de sa maison est devenu le jardin public de La Couronne et porte le nom de « Jardin public Eugène Bureau » en 2019[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Bureau, né André Eugène Buraud à Angoulême le 2 juillet 1872, est le fils d'Honoré Jean Buraud qui a une entreprise d'horticulture à Angoulême, au 65 rue Basse de l‘Hémicycle, réalisant des tracés de parcs et jardins ainsi que des travaux hydrauliques. Honoré Buraud tient ensuite un magasin de fleurs, place Bouillaud, à Angoulême, avec ses deux fils, Eugène André et Auguste Fernand.
+Eugène se marie le 16 juillet 1898 à Barbezieux avec Marguerite Guyot mais sa jeune épouse décède sept semaines plus tard.
+Il vit à Paris en 1905 et y épouse le 4 mars 1907 Marguerite Olivier. De ce mariage sont nés trois enfants, André, en 1908, Yvonne, en 1909, et Jacques, en 1910.
+Il achète une propriété à La Couronne en 1910 où il s'installe avec sa famille.
+Il est mobilisé en 1914 et reçoit la Croix de guerre. Il reprend son activité de paysagiste en 1919. Au total, il a réalisé près de 80 jardins dans 40 communes du département de la Charente, dont 13 à La Couronne et 10 à Angoulême.
+Il meurt d'un cancer dans sa propriété le 28 janvier 1955. Le parc de sa maison est devenu le jardin public de La Couronne et porte le nom de « Jardin public Eugène Bureau » en 2019.
 Trois de ses jardins sont inscrits au titre des monuments historiques.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Bureau</t>
+          <t>Eugène_Bureau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +562,15 @@
           <t>Réalisations les plus remarquables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jardin de la maison Lacroix à La Couronne, au début des années 1920, inscrit au titre des monuments historiques en 2013[2].
-Parc du logis de Chênard dans la commune de Chavenat, entre 1922 et 1924[3], inscrit au titre des monuments historiques en 1992[4].
-Jardin du moulin de Nanteuillet à Voulgézac, en 1927[5], inscrit au titre des monuments historiques en 2010[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jardin de la maison Lacroix à La Couronne, au début des années 1920, inscrit au titre des monuments historiques en 2013.
+Parc du logis de Chênard dans la commune de Chavenat, entre 1922 et 1924, inscrit au titre des monuments historiques en 1992.
+Jardin du moulin de Nanteuillet à Voulgézac, en 1927, inscrit au titre des monuments historiques en 2010.
 Jardin de l'hôtel de ville d'Angoulême, en 1930.
-Jardins de l'Argentor à Nanteuil-en-Vallée en 1932[7].
+Jardins de l'Argentor à Nanteuil-en-Vallée en 1932.
 Jardin de l'hôpital de Girac.
 Parc du château de la Mercerie de la fin des années 1940 au début des années 1950.
 			Jardin du moulin de Nanteuillet.
